--- a/Code/Results/Cases/Case_3_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023655216221118</v>
+        <v>1.053445042572105</v>
       </c>
       <c r="D2">
-        <v>1.039373248505684</v>
+        <v>1.057432484043855</v>
       </c>
       <c r="E2">
-        <v>1.026585118759413</v>
+        <v>1.050122343835313</v>
       </c>
       <c r="F2">
-        <v>1.044836168049764</v>
+        <v>1.067646275417137</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053545780073487</v>
+        <v>1.048135397382967</v>
       </c>
       <c r="J2">
-        <v>1.045150711716904</v>
+        <v>1.058462350457963</v>
       </c>
       <c r="K2">
-        <v>1.050310006971465</v>
+        <v>1.060167469247092</v>
       </c>
       <c r="L2">
-        <v>1.03768610008277</v>
+        <v>1.05287749871197</v>
       </c>
       <c r="M2">
-        <v>1.055704300267264</v>
+        <v>1.070353579898257</v>
       </c>
       <c r="N2">
-        <v>1.046634945608004</v>
+        <v>1.059965488402942</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029093492211119</v>
+        <v>1.054574879829328</v>
       </c>
       <c r="D3">
-        <v>1.043522177875047</v>
+        <v>1.058314890067011</v>
       </c>
       <c r="E3">
-        <v>1.031038411897449</v>
+        <v>1.051091084574066</v>
       </c>
       <c r="F3">
-        <v>1.049591112651575</v>
+        <v>1.068683561301931</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055443275048541</v>
+        <v>1.048472298809585</v>
       </c>
       <c r="J3">
-        <v>1.048821280284532</v>
+        <v>1.059242198020337</v>
       </c>
       <c r="K3">
-        <v>1.053626897168335</v>
+        <v>1.060863536177314</v>
       </c>
       <c r="L3">
-        <v>1.041288975250733</v>
+        <v>1.053658219422404</v>
       </c>
       <c r="M3">
-        <v>1.059626476085169</v>
+        <v>1.071206140160495</v>
       </c>
       <c r="N3">
-        <v>1.050310726804018</v>
+        <v>1.060746443438304</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032532828286813</v>
+        <v>1.055306065315612</v>
       </c>
       <c r="D4">
-        <v>1.046149481568599</v>
+        <v>1.058885953714579</v>
       </c>
       <c r="E4">
-        <v>1.033860292130604</v>
+        <v>1.051718299149764</v>
       </c>
       <c r="F4">
-        <v>1.05260455129997</v>
+        <v>1.069355205332178</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056634589271151</v>
+        <v>1.048689185117087</v>
       </c>
       <c r="J4">
-        <v>1.051139426643251</v>
+        <v>1.059746346503067</v>
       </c>
       <c r="K4">
-        <v>1.055721088217321</v>
+        <v>1.061313387368983</v>
       </c>
       <c r="L4">
-        <v>1.043566532337949</v>
+        <v>1.054163153144751</v>
       </c>
       <c r="M4">
-        <v>1.062106981797633</v>
+        <v>1.071757645003447</v>
       </c>
       <c r="N4">
-        <v>1.052632165196461</v>
+        <v>1.061251307869706</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033960453402244</v>
+        <v>1.05561348149886</v>
       </c>
       <c r="D5">
-        <v>1.047240792855357</v>
+        <v>1.059126049700186</v>
       </c>
       <c r="E5">
-        <v>1.035032879431304</v>
+        <v>1.05198206970695</v>
       </c>
       <c r="F5">
-        <v>1.053856832822767</v>
+        <v>1.069637672230956</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057126955032177</v>
+        <v>1.048780098020834</v>
       </c>
       <c r="J5">
-        <v>1.052100841171514</v>
+        <v>1.05995817927614</v>
       </c>
       <c r="K5">
-        <v>1.056589467821449</v>
+        <v>1.061502372936561</v>
       </c>
       <c r="L5">
-        <v>1.044511628596242</v>
+        <v>1.054375368665728</v>
       </c>
       <c r="M5">
-        <v>1.063136551559898</v>
+        <v>1.071989459561041</v>
       </c>
       <c r="N5">
-        <v>1.053594945043631</v>
+        <v>1.061463441469614</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034199108389008</v>
+        <v>1.055665099559849</v>
       </c>
       <c r="D6">
-        <v>1.047423268868629</v>
+        <v>1.059166364087472</v>
       </c>
       <c r="E6">
-        <v>1.035228972516288</v>
+        <v>1.052026363192049</v>
       </c>
       <c r="F6">
-        <v>1.05406625874605</v>
+        <v>1.069685105980283</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057209136811095</v>
+        <v>1.048795347092702</v>
       </c>
       <c r="J6">
-        <v>1.052261510751405</v>
+        <v>1.059993740409583</v>
       </c>
       <c r="K6">
-        <v>1.056734580277055</v>
+        <v>1.06153409671055</v>
       </c>
       <c r="L6">
-        <v>1.044669601319809</v>
+        <v>1.054410997147855</v>
       </c>
       <c r="M6">
-        <v>1.063308658991796</v>
+        <v>1.072028380009626</v>
       </c>
       <c r="N6">
-        <v>1.053755842792755</v>
+        <v>1.061499053103946</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.032551975076377</v>
+        <v>1.055310172923522</v>
       </c>
       <c r="D7">
-        <v>1.046164114953875</v>
+        <v>1.058889161807329</v>
       </c>
       <c r="E7">
-        <v>1.033876013534107</v>
+        <v>1.051721823313131</v>
       </c>
       <c r="F7">
-        <v>1.052621340828691</v>
+        <v>1.069358979245508</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056641201188437</v>
+        <v>1.048690400945364</v>
       </c>
       <c r="J7">
-        <v>1.051152324076677</v>
+        <v>1.059749177459973</v>
       </c>
       <c r="K7">
-        <v>1.055732738201446</v>
+        <v>1.061315913121611</v>
       </c>
       <c r="L7">
-        <v>1.043579208826974</v>
+        <v>1.054165989009263</v>
       </c>
       <c r="M7">
-        <v>1.062120790311377</v>
+        <v>1.071760742670648</v>
       </c>
       <c r="N7">
-        <v>1.052645080945723</v>
+        <v>1.061254142846896</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025510073197094</v>
+        <v>1.053826854941776</v>
       </c>
       <c r="D8">
-        <v>1.040787590668268</v>
+        <v>1.057730678945159</v>
       </c>
       <c r="E8">
-        <v>1.028102838760221</v>
+        <v>1.050449656682881</v>
       </c>
       <c r="F8">
-        <v>1.046456604106681</v>
+        <v>1.067996737627181</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0541947730462</v>
+        <v>1.048249484917916</v>
       </c>
       <c r="J8">
-        <v>1.046403302064899</v>
+        <v>1.058725999930833</v>
       </c>
       <c r="K8">
-        <v>1.051442020566069</v>
+        <v>1.060402822315078</v>
       </c>
       <c r="L8">
-        <v>1.038915133109795</v>
+        <v>1.05314139760647</v>
       </c>
       <c r="M8">
-        <v>1.05704201894927</v>
+        <v>1.070641739423493</v>
       </c>
       <c r="N8">
-        <v>1.047889314777967</v>
+        <v>1.060229512288304</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01245408278013</v>
+        <v>1.051213837420469</v>
       </c>
       <c r="D9">
-        <v>1.030849518948541</v>
+        <v>1.055689967251405</v>
       </c>
       <c r="E9">
-        <v>1.017445631040487</v>
+        <v>1.048210809738729</v>
       </c>
       <c r="F9">
-        <v>1.035080083133035</v>
+        <v>1.065599751873853</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049591218790908</v>
+        <v>1.047464022821484</v>
       </c>
       <c r="J9">
-        <v>1.037574592579741</v>
+        <v>1.056919464727532</v>
       </c>
       <c r="K9">
-        <v>1.04346115502787</v>
+        <v>1.058789623890217</v>
       </c>
       <c r="L9">
-        <v>1.030261866913631</v>
+        <v>1.051334062129796</v>
       </c>
       <c r="M9">
-        <v>1.047628541793576</v>
+        <v>1.068668701440304</v>
       </c>
       <c r="N9">
-        <v>1.039048067512673</v>
+        <v>1.058420411597802</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003257992764473</v>
+        <v>1.0494723076917</v>
       </c>
       <c r="D10">
-        <v>1.0238747798919</v>
+        <v>1.054329962482468</v>
       </c>
       <c r="E10">
-        <v>1.009974785620689</v>
+        <v>1.046720180436202</v>
       </c>
       <c r="F10">
-        <v>1.027107702859599</v>
+        <v>1.064004091853109</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046305598790026</v>
+        <v>1.046934658059417</v>
       </c>
       <c r="J10">
-        <v>1.031342941735048</v>
+        <v>1.055712702454571</v>
       </c>
       <c r="K10">
-        <v>1.03782594489623</v>
+        <v>1.057711323692818</v>
       </c>
       <c r="L10">
-        <v>1.024166247845863</v>
+        <v>1.050127909295165</v>
       </c>
       <c r="M10">
-        <v>1.041004180930848</v>
+        <v>1.067352530958221</v>
       </c>
       <c r="N10">
-        <v>1.032807567009001</v>
+        <v>1.057211935583996</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.999145186379216</v>
+        <v>1.04871831036829</v>
       </c>
       <c r="D11">
-        <v>1.02076256468878</v>
+        <v>1.053741178185853</v>
       </c>
       <c r="E11">
-        <v>1.006643023642428</v>
+        <v>1.046075180379</v>
       </c>
       <c r="F11">
-        <v>1.023553004250357</v>
+        <v>1.063313706437676</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044826625632962</v>
+        <v>1.046704079180425</v>
       </c>
       <c r="J11">
-        <v>1.028553569886797</v>
+        <v>1.05518958793033</v>
       </c>
       <c r="K11">
-        <v>1.035303271258057</v>
+        <v>1.057243734683619</v>
       </c>
       <c r="L11">
-        <v>1.021440740289418</v>
+        <v>1.04960533106368</v>
       </c>
       <c r="M11">
-        <v>1.038044006816111</v>
+        <v>1.066782421750929</v>
       </c>
       <c r="N11">
-        <v>1.03001423393278</v>
+        <v>1.056688078177128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9975965297391085</v>
+        <v>1.048438255725154</v>
       </c>
       <c r="D12">
-        <v>1.019591850892442</v>
+        <v>1.053522493532375</v>
       </c>
       <c r="E12">
-        <v>1.005389977507208</v>
+        <v>1.045835666470446</v>
       </c>
       <c r="F12">
-        <v>1.022216232179241</v>
+        <v>1.063057348480374</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044268356327678</v>
+        <v>1.046618227409451</v>
       </c>
       <c r="J12">
-        <v>1.027502958213586</v>
+        <v>1.054995192670445</v>
       </c>
       <c r="K12">
-        <v>1.034353087376767</v>
+        <v>1.057069949294851</v>
       </c>
       <c r="L12">
-        <v>1.020414637500569</v>
+        <v>1.049411176046962</v>
       </c>
       <c r="M12">
-        <v>1.036929832242793</v>
+        <v>1.066570627824491</v>
       </c>
       <c r="N12">
-        <v>1.028962130270486</v>
+        <v>1.056493406853677</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9979296935651443</v>
+        <v>1.048498327799847</v>
       </c>
       <c r="D13">
-        <v>1.019843652716211</v>
+        <v>1.05356940140639</v>
       </c>
       <c r="E13">
-        <v>1.005659476556892</v>
+        <v>1.045887039949243</v>
       </c>
       <c r="F13">
-        <v>1.022503733091288</v>
+        <v>1.063112334426589</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044388518084885</v>
+        <v>1.046636652162076</v>
       </c>
       <c r="J13">
-        <v>1.027728989062935</v>
+        <v>1.055036895066244</v>
       </c>
       <c r="K13">
-        <v>1.034557512739996</v>
+        <v>1.057107231469511</v>
       </c>
       <c r="L13">
-        <v>1.020635374797423</v>
+        <v>1.049452825050794</v>
       </c>
       <c r="M13">
-        <v>1.03716950303542</v>
+        <v>1.06661605969952</v>
       </c>
       <c r="N13">
-        <v>1.029188482109567</v>
+        <v>1.056535168471661</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9990176099072676</v>
+        <v>1.048695160693619</v>
       </c>
       <c r="D14">
-        <v>1.020666098195035</v>
+        <v>1.053723101316689</v>
       </c>
       <c r="E14">
-        <v>1.006539767943767</v>
+        <v>1.046055380701537</v>
       </c>
       <c r="F14">
-        <v>1.023442846758939</v>
+        <v>1.063292514138218</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044780663519895</v>
+        <v>1.046696986818844</v>
       </c>
       <c r="J14">
-        <v>1.028467027199327</v>
+        <v>1.055173520938903</v>
       </c>
       <c r="K14">
-        <v>1.035225001542914</v>
+        <v>1.057229371611111</v>
       </c>
       <c r="L14">
-        <v>1.021356207209457</v>
+        <v>1.049589283092959</v>
       </c>
       <c r="M14">
-        <v>1.03795221246472</v>
+        <v>1.066764915411285</v>
       </c>
       <c r="N14">
-        <v>1.029927568344767</v>
+        <v>1.056671988368731</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.999685089961536</v>
+        <v>1.048816437700288</v>
       </c>
       <c r="D15">
-        <v>1.021170859359437</v>
+        <v>1.053817803031319</v>
       </c>
       <c r="E15">
-        <v>1.007080063867911</v>
+        <v>1.046159109979797</v>
       </c>
       <c r="F15">
-        <v>1.024019261898493</v>
+        <v>1.063403539658461</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045021081888834</v>
+        <v>1.046734133889296</v>
       </c>
       <c r="J15">
-        <v>1.028919807204468</v>
+        <v>1.055257689079349</v>
       </c>
       <c r="K15">
-        <v>1.035634497589679</v>
+        <v>1.057304612661127</v>
       </c>
       <c r="L15">
-        <v>1.021798491768223</v>
+        <v>1.049673353269143</v>
       </c>
       <c r="M15">
-        <v>1.038432499954238</v>
+        <v>1.066856626351298</v>
       </c>
       <c r="N15">
-        <v>1.030380991349449</v>
+        <v>1.056756276037591</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003528079435863</v>
+        <v>1.049522349961986</v>
       </c>
       <c r="D16">
-        <v>1.024079314932344</v>
+        <v>1.05436904040718</v>
       </c>
       <c r="E16">
-        <v>1.010193785582338</v>
+        <v>1.046762996484522</v>
       </c>
       <c r="F16">
-        <v>1.027341372607621</v>
+        <v>1.064049921953218</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04640252945059</v>
+        <v>1.04694993214716</v>
       </c>
       <c r="J16">
-        <v>1.031526075311215</v>
+        <v>1.055747407626985</v>
       </c>
       <c r="K16">
-        <v>1.037991564389849</v>
+        <v>1.057742341738679</v>
       </c>
       <c r="L16">
-        <v>1.024345250943783</v>
+        <v>1.050162584624607</v>
       </c>
       <c r="M16">
-        <v>1.041198633656641</v>
+        <v>1.067390363031142</v>
       </c>
       <c r="N16">
-        <v>1.032990960655851</v>
+        <v>1.057246690041735</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005902758944628</v>
+        <v>1.049965175235382</v>
       </c>
       <c r="D17">
-        <v>1.02587846701162</v>
+        <v>1.054714845637075</v>
       </c>
       <c r="E17">
-        <v>1.012120380371566</v>
+        <v>1.047141919536994</v>
       </c>
       <c r="F17">
-        <v>1.029397105198192</v>
+        <v>1.064455526579467</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047253696449159</v>
+        <v>1.047084932380129</v>
       </c>
       <c r="J17">
-        <v>1.033135977525829</v>
+        <v>1.056054440026666</v>
       </c>
       <c r="K17">
-        <v>1.039447473353034</v>
+        <v>1.058016736013689</v>
       </c>
       <c r="L17">
-        <v>1.025919181207117</v>
+        <v>1.050469384432488</v>
       </c>
       <c r="M17">
-        <v>1.042908608655798</v>
+        <v>1.067725108658994</v>
       </c>
       <c r="N17">
-        <v>1.034603149116268</v>
+        <v>1.057554158462641</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007275340264357</v>
+        <v>1.050223477105076</v>
       </c>
       <c r="D18">
-        <v>1.026919056724028</v>
+        <v>1.054916558275414</v>
       </c>
       <c r="E18">
-        <v>1.01323485414916</v>
+        <v>1.047362982587712</v>
       </c>
       <c r="F18">
-        <v>1.030586349876765</v>
+        <v>1.064692161573459</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047744770617658</v>
+        <v>1.047163544476677</v>
       </c>
       <c r="J18">
-        <v>1.034066283857555</v>
+        <v>1.056233471035766</v>
       </c>
       <c r="K18">
-        <v>1.040288764941615</v>
+        <v>1.058176720154527</v>
       </c>
       <c r="L18">
-        <v>1.026828981440897</v>
+        <v>1.050648306049893</v>
       </c>
       <c r="M18">
-        <v>1.043897213139673</v>
+        <v>1.06792034095696</v>
       </c>
       <c r="N18">
-        <v>1.035534776589694</v>
+        <v>1.057733443716309</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007741268137671</v>
+        <v>1.050311552988034</v>
       </c>
       <c r="D19">
-        <v>1.027272398992038</v>
+        <v>1.054985338818736</v>
       </c>
       <c r="E19">
-        <v>1.013613314552088</v>
+        <v>1.047438366781741</v>
       </c>
       <c r="F19">
-        <v>1.030990212907734</v>
+        <v>1.064772856929039</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047911312052218</v>
+        <v>1.047190326910506</v>
       </c>
       <c r="J19">
-        <v>1.034382039152346</v>
+        <v>1.056294506529278</v>
       </c>
       <c r="K19">
-        <v>1.040574302573057</v>
+        <v>1.058231259524644</v>
       </c>
       <c r="L19">
-        <v>1.027137824182694</v>
+        <v>1.050709308696886</v>
       </c>
       <c r="M19">
-        <v>1.044232834464632</v>
+        <v>1.067986906878844</v>
       </c>
       <c r="N19">
-        <v>1.035850980293221</v>
+        <v>1.057794565887223</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.005649283426304</v>
+        <v>1.04991766331104</v>
       </c>
       <c r="D20">
-        <v>1.025686353850905</v>
+        <v>1.054677742943171</v>
       </c>
       <c r="E20">
-        <v>1.011914640977259</v>
+        <v>1.047101260165863</v>
       </c>
       <c r="F20">
-        <v>1.029177568093413</v>
+        <v>1.064412003593494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047162935723573</v>
+        <v>1.047070461709903</v>
       </c>
       <c r="J20">
-        <v>1.032964158292635</v>
+        <v>1.056021504129253</v>
       </c>
       <c r="K20">
-        <v>1.039292092002667</v>
+        <v>1.057987302870259</v>
       </c>
       <c r="L20">
-        <v>1.025751171929481</v>
+        <v>1.050436470771388</v>
       </c>
       <c r="M20">
-        <v>1.042726060113518</v>
+        <v>1.067689195604103</v>
       </c>
       <c r="N20">
-        <v>1.034431085880055</v>
+        <v>1.057521175792476</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9986978359122974</v>
+        <v>1.048637197946485</v>
       </c>
       <c r="D21">
-        <v>1.020424321520852</v>
+        <v>1.053677840080814</v>
       </c>
       <c r="E21">
-        <v>1.006280979316396</v>
+        <v>1.046005806674227</v>
       </c>
       <c r="F21">
-        <v>1.023166762184167</v>
+        <v>1.063239453443183</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044665436370038</v>
+        <v>1.046679225412604</v>
       </c>
       <c r="J21">
-        <v>1.028250101138531</v>
+        <v>1.055133290435369</v>
       </c>
       <c r="K21">
-        <v>1.035028812022147</v>
+        <v>1.05719340720099</v>
       </c>
       <c r="L21">
-        <v>1.021144325732955</v>
+        <v>1.049549100877495</v>
       </c>
       <c r="M21">
-        <v>1.03772213515867</v>
+        <v>1.066721081943006</v>
       </c>
       <c r="N21">
-        <v>1.029710334224083</v>
+        <v>1.056631700733268</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9942050772995913</v>
+        <v>1.047832196379305</v>
       </c>
       <c r="D22">
-        <v>1.017030352135793</v>
+        <v>1.053049254331505</v>
       </c>
       <c r="E22">
-        <v>1.002648781582847</v>
+        <v>1.045317443979272</v>
       </c>
       <c r="F22">
-        <v>1.019292103640497</v>
+        <v>1.062502698576433</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043043336994742</v>
+        <v>1.0464320563429</v>
       </c>
       <c r="J22">
-        <v>1.025201739363772</v>
+        <v>1.054574330366572</v>
       </c>
       <c r="K22">
-        <v>1.032271819112146</v>
+        <v>1.056693663197931</v>
       </c>
       <c r="L22">
-        <v>1.018167947585929</v>
+        <v>1.048990908841363</v>
       </c>
       <c r="M22">
-        <v>1.034490829211461</v>
+        <v>1.066112216925753</v>
       </c>
       <c r="N22">
-        <v>1.026657643425952</v>
+        <v>1.056071946877059</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9965988195519841</v>
+        <v>1.048258935886915</v>
       </c>
       <c r="D23">
-        <v>1.018837972368389</v>
+        <v>1.053382470723523</v>
       </c>
       <c r="E23">
-        <v>1.004583150258461</v>
+        <v>1.045682320912674</v>
       </c>
       <c r="F23">
-        <v>1.021355528975426</v>
+        <v>1.062893221376061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043908317860294</v>
+        <v>1.046563197543495</v>
       </c>
       <c r="J23">
-        <v>1.026826037441928</v>
+        <v>1.054870693637366</v>
       </c>
       <c r="K23">
-        <v>1.033740869047748</v>
+        <v>1.056958642956018</v>
       </c>
       <c r="L23">
-        <v>1.019753637180836</v>
+        <v>1.049286842412853</v>
       </c>
       <c r="M23">
-        <v>1.036212176866182</v>
+        <v>1.066435004283642</v>
       </c>
       <c r="N23">
-        <v>1.028284248193689</v>
+        <v>1.05636873101769</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005763856723595</v>
+        <v>1.049939131875216</v>
       </c>
       <c r="D24">
-        <v>1.025773188728412</v>
+        <v>1.054694508021536</v>
       </c>
       <c r="E24">
-        <v>1.012007634351935</v>
+        <v>1.047119632250508</v>
       </c>
       <c r="F24">
-        <v>1.029276797764762</v>
+        <v>1.064431669594513</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047203963233776</v>
+        <v>1.047077000788361</v>
       </c>
       <c r="J24">
-        <v>1.033041822901325</v>
+        <v>1.056036386615802</v>
       </c>
       <c r="K24">
-        <v>1.039362326553219</v>
+        <v>1.058000602642765</v>
       </c>
       <c r="L24">
-        <v>1.0258271135162</v>
+        <v>1.050451343129143</v>
       </c>
       <c r="M24">
-        <v>1.042808573059225</v>
+        <v>1.067705423226812</v>
       </c>
       <c r="N24">
-        <v>1.034508860781398</v>
+        <v>1.057536079413864</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.015911660982621</v>
+        <v>1.05188927711973</v>
       </c>
       <c r="D25">
-        <v>1.033477410509603</v>
+        <v>1.056217458112367</v>
       </c>
       <c r="E25">
-        <v>1.0202621339155</v>
+        <v>1.048789264483341</v>
       </c>
       <c r="F25">
-        <v>1.038086246550426</v>
+        <v>1.066219019787183</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05081797595117</v>
+        <v>1.047668092347362</v>
       </c>
       <c r="J25">
-        <v>1.039915148803939</v>
+        <v>1.057386920769382</v>
       </c>
       <c r="K25">
-        <v>1.045577346469864</v>
+        <v>1.059207173956995</v>
       </c>
       <c r="L25">
-        <v>1.032553843212484</v>
+        <v>1.051801524039535</v>
       </c>
       <c r="M25">
-        <v>1.05012075305815</v>
+        <v>1.069178922333049</v>
       </c>
       <c r="N25">
-        <v>1.041391947595175</v>
+        <v>1.058888531480849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053445042572105</v>
+        <v>1.023655216221118</v>
       </c>
       <c r="D2">
-        <v>1.057432484043855</v>
+        <v>1.039373248505683</v>
       </c>
       <c r="E2">
-        <v>1.050122343835313</v>
+        <v>1.026585118759412</v>
       </c>
       <c r="F2">
-        <v>1.067646275417137</v>
+        <v>1.044836168049763</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048135397382967</v>
+        <v>1.053545780073487</v>
       </c>
       <c r="J2">
-        <v>1.058462350457963</v>
+        <v>1.045150711716903</v>
       </c>
       <c r="K2">
-        <v>1.060167469247092</v>
+        <v>1.050310006971464</v>
       </c>
       <c r="L2">
-        <v>1.05287749871197</v>
+        <v>1.03768610008277</v>
       </c>
       <c r="M2">
-        <v>1.070353579898257</v>
+        <v>1.055704300267264</v>
       </c>
       <c r="N2">
-        <v>1.059965488402942</v>
+        <v>1.046634945608004</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054574879829328</v>
+        <v>1.029093492211118</v>
       </c>
       <c r="D3">
-        <v>1.058314890067011</v>
+        <v>1.043522177875046</v>
       </c>
       <c r="E3">
-        <v>1.051091084574066</v>
+        <v>1.031038411897449</v>
       </c>
       <c r="F3">
-        <v>1.068683561301931</v>
+        <v>1.049591112651575</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048472298809585</v>
+        <v>1.055443275048541</v>
       </c>
       <c r="J3">
-        <v>1.059242198020337</v>
+        <v>1.048821280284532</v>
       </c>
       <c r="K3">
-        <v>1.060863536177314</v>
+        <v>1.053626897168335</v>
       </c>
       <c r="L3">
-        <v>1.053658219422404</v>
+        <v>1.041288975250732</v>
       </c>
       <c r="M3">
-        <v>1.071206140160495</v>
+        <v>1.059626476085168</v>
       </c>
       <c r="N3">
-        <v>1.060746443438304</v>
+        <v>1.050310726804018</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055306065315612</v>
+        <v>1.032532828286812</v>
       </c>
       <c r="D4">
-        <v>1.058885953714579</v>
+        <v>1.046149481568598</v>
       </c>
       <c r="E4">
-        <v>1.051718299149764</v>
+        <v>1.033860292130603</v>
       </c>
       <c r="F4">
-        <v>1.069355205332178</v>
+        <v>1.052604551299969</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048689185117087</v>
+        <v>1.05663458927115</v>
       </c>
       <c r="J4">
-        <v>1.059746346503067</v>
+        <v>1.05113942664325</v>
       </c>
       <c r="K4">
-        <v>1.061313387368983</v>
+        <v>1.05572108821732</v>
       </c>
       <c r="L4">
-        <v>1.054163153144751</v>
+        <v>1.043566532337948</v>
       </c>
       <c r="M4">
-        <v>1.071757645003447</v>
+        <v>1.062106981797632</v>
       </c>
       <c r="N4">
-        <v>1.061251307869706</v>
+        <v>1.052632165196461</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.05561348149886</v>
+        <v>1.033960453402245</v>
       </c>
       <c r="D5">
-        <v>1.059126049700186</v>
+        <v>1.047240792855358</v>
       </c>
       <c r="E5">
-        <v>1.05198206970695</v>
+        <v>1.035032879431306</v>
       </c>
       <c r="F5">
-        <v>1.069637672230956</v>
+        <v>1.053856832822768</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048780098020834</v>
+        <v>1.057126955032178</v>
       </c>
       <c r="J5">
-        <v>1.05995817927614</v>
+        <v>1.052100841171516</v>
       </c>
       <c r="K5">
-        <v>1.061502372936561</v>
+        <v>1.05658946782145</v>
       </c>
       <c r="L5">
-        <v>1.054375368665728</v>
+        <v>1.044511628596243</v>
       </c>
       <c r="M5">
-        <v>1.071989459561041</v>
+        <v>1.063136551559899</v>
       </c>
       <c r="N5">
-        <v>1.061463441469614</v>
+        <v>1.053594945043632</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.055665099559849</v>
+        <v>1.034199108389008</v>
       </c>
       <c r="D6">
-        <v>1.059166364087472</v>
+        <v>1.04742326886863</v>
       </c>
       <c r="E6">
-        <v>1.052026363192049</v>
+        <v>1.035228972516289</v>
       </c>
       <c r="F6">
-        <v>1.069685105980283</v>
+        <v>1.054066258746051</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048795347092702</v>
+        <v>1.057209136811096</v>
       </c>
       <c r="J6">
-        <v>1.059993740409583</v>
+        <v>1.052261510751406</v>
       </c>
       <c r="K6">
-        <v>1.06153409671055</v>
+        <v>1.056734580277055</v>
       </c>
       <c r="L6">
-        <v>1.054410997147855</v>
+        <v>1.044669601319809</v>
       </c>
       <c r="M6">
-        <v>1.072028380009626</v>
+        <v>1.063308658991797</v>
       </c>
       <c r="N6">
-        <v>1.061499053103946</v>
+        <v>1.053755842792755</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055310172923522</v>
+        <v>1.032551975076377</v>
       </c>
       <c r="D7">
-        <v>1.058889161807329</v>
+        <v>1.046164114953875</v>
       </c>
       <c r="E7">
-        <v>1.051721823313131</v>
+        <v>1.033876013534106</v>
       </c>
       <c r="F7">
-        <v>1.069358979245508</v>
+        <v>1.052621340828691</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048690400945364</v>
+        <v>1.056641201188437</v>
       </c>
       <c r="J7">
-        <v>1.059749177459973</v>
+        <v>1.051152324076677</v>
       </c>
       <c r="K7">
-        <v>1.061315913121611</v>
+        <v>1.055732738201445</v>
       </c>
       <c r="L7">
-        <v>1.054165989009263</v>
+        <v>1.043579208826973</v>
       </c>
       <c r="M7">
-        <v>1.071760742670648</v>
+        <v>1.062120790311377</v>
       </c>
       <c r="N7">
-        <v>1.061254142846896</v>
+        <v>1.052645080945723</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.053826854941776</v>
+        <v>1.025510073197093</v>
       </c>
       <c r="D8">
-        <v>1.057730678945159</v>
+        <v>1.040787590668267</v>
       </c>
       <c r="E8">
-        <v>1.050449656682881</v>
+        <v>1.02810283876022</v>
       </c>
       <c r="F8">
-        <v>1.067996737627181</v>
+        <v>1.04645660410668</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048249484917916</v>
+        <v>1.054194773046199</v>
       </c>
       <c r="J8">
-        <v>1.058725999930833</v>
+        <v>1.046403302064898</v>
       </c>
       <c r="K8">
-        <v>1.060402822315078</v>
+        <v>1.051442020566068</v>
       </c>
       <c r="L8">
-        <v>1.05314139760647</v>
+        <v>1.038915133109794</v>
       </c>
       <c r="M8">
-        <v>1.070641739423493</v>
+        <v>1.05704201894927</v>
       </c>
       <c r="N8">
-        <v>1.060229512288304</v>
+        <v>1.047889314777966</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051213837420469</v>
+        <v>1.01245408278013</v>
       </c>
       <c r="D9">
-        <v>1.055689967251405</v>
+        <v>1.030849518948541</v>
       </c>
       <c r="E9">
-        <v>1.048210809738729</v>
+        <v>1.017445631040487</v>
       </c>
       <c r="F9">
-        <v>1.065599751873853</v>
+        <v>1.035080083133035</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047464022821484</v>
+        <v>1.049591218790908</v>
       </c>
       <c r="J9">
-        <v>1.056919464727532</v>
+        <v>1.037574592579741</v>
       </c>
       <c r="K9">
-        <v>1.058789623890217</v>
+        <v>1.04346115502787</v>
       </c>
       <c r="L9">
-        <v>1.051334062129796</v>
+        <v>1.030261866913631</v>
       </c>
       <c r="M9">
-        <v>1.068668701440304</v>
+        <v>1.047628541793576</v>
       </c>
       <c r="N9">
-        <v>1.058420411597802</v>
+        <v>1.039048067512673</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.0494723076917</v>
+        <v>1.003257992764473</v>
       </c>
       <c r="D10">
-        <v>1.054329962482468</v>
+        <v>1.0238747798919</v>
       </c>
       <c r="E10">
-        <v>1.046720180436202</v>
+        <v>1.009974785620689</v>
       </c>
       <c r="F10">
-        <v>1.064004091853109</v>
+        <v>1.027107702859599</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046934658059417</v>
+        <v>1.046305598790027</v>
       </c>
       <c r="J10">
-        <v>1.055712702454571</v>
+        <v>1.031342941735049</v>
       </c>
       <c r="K10">
-        <v>1.057711323692818</v>
+        <v>1.03782594489623</v>
       </c>
       <c r="L10">
-        <v>1.050127909295165</v>
+        <v>1.024166247845863</v>
       </c>
       <c r="M10">
-        <v>1.067352530958221</v>
+        <v>1.041004180930848</v>
       </c>
       <c r="N10">
-        <v>1.057211935583996</v>
+        <v>1.032807567009001</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04871831036829</v>
+        <v>0.9991451863792159</v>
       </c>
       <c r="D11">
-        <v>1.053741178185853</v>
+        <v>1.020762564688779</v>
       </c>
       <c r="E11">
-        <v>1.046075180379</v>
+        <v>1.006643023642428</v>
       </c>
       <c r="F11">
-        <v>1.063313706437676</v>
+        <v>1.023553004250357</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046704079180425</v>
+        <v>1.044826625632962</v>
       </c>
       <c r="J11">
-        <v>1.05518958793033</v>
+        <v>1.028553569886797</v>
       </c>
       <c r="K11">
-        <v>1.057243734683619</v>
+        <v>1.035303271258057</v>
       </c>
       <c r="L11">
-        <v>1.04960533106368</v>
+        <v>1.021440740289418</v>
       </c>
       <c r="M11">
-        <v>1.066782421750929</v>
+        <v>1.038044006816111</v>
       </c>
       <c r="N11">
-        <v>1.056688078177128</v>
+        <v>1.03001423393278</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.048438255725154</v>
+        <v>0.997596529739108</v>
       </c>
       <c r="D12">
-        <v>1.053522493532375</v>
+        <v>1.019591850892441</v>
       </c>
       <c r="E12">
-        <v>1.045835666470446</v>
+        <v>1.005389977507208</v>
       </c>
       <c r="F12">
-        <v>1.063057348480374</v>
+        <v>1.022216232179241</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046618227409451</v>
+        <v>1.044268356327678</v>
       </c>
       <c r="J12">
-        <v>1.054995192670445</v>
+        <v>1.027502958213586</v>
       </c>
       <c r="K12">
-        <v>1.057069949294851</v>
+        <v>1.034353087376766</v>
       </c>
       <c r="L12">
-        <v>1.049411176046962</v>
+        <v>1.020414637500568</v>
       </c>
       <c r="M12">
-        <v>1.066570627824491</v>
+        <v>1.036929832242793</v>
       </c>
       <c r="N12">
-        <v>1.056493406853677</v>
+        <v>1.028962130270485</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.048498327799847</v>
+        <v>0.9979296935651442</v>
       </c>
       <c r="D13">
-        <v>1.05356940140639</v>
+        <v>1.019843652716211</v>
       </c>
       <c r="E13">
-        <v>1.045887039949243</v>
+        <v>1.005659476556892</v>
       </c>
       <c r="F13">
-        <v>1.063112334426589</v>
+        <v>1.022503733091288</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046636652162076</v>
+        <v>1.044388518084885</v>
       </c>
       <c r="J13">
-        <v>1.055036895066244</v>
+        <v>1.027728989062935</v>
       </c>
       <c r="K13">
-        <v>1.057107231469511</v>
+        <v>1.034557512739996</v>
       </c>
       <c r="L13">
-        <v>1.049452825050794</v>
+        <v>1.020635374797423</v>
       </c>
       <c r="M13">
-        <v>1.06661605969952</v>
+        <v>1.03716950303542</v>
       </c>
       <c r="N13">
-        <v>1.056535168471661</v>
+        <v>1.029188482109567</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.048695160693619</v>
+        <v>0.9990176099072655</v>
       </c>
       <c r="D14">
-        <v>1.053723101316689</v>
+        <v>1.020666098195033</v>
       </c>
       <c r="E14">
-        <v>1.046055380701537</v>
+        <v>1.006539767943765</v>
       </c>
       <c r="F14">
-        <v>1.063292514138218</v>
+        <v>1.023442846758937</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046696986818844</v>
+        <v>1.044780663519894</v>
       </c>
       <c r="J14">
-        <v>1.055173520938903</v>
+        <v>1.028467027199325</v>
       </c>
       <c r="K14">
-        <v>1.057229371611111</v>
+        <v>1.035225001542913</v>
       </c>
       <c r="L14">
-        <v>1.049589283092959</v>
+        <v>1.021356207209455</v>
       </c>
       <c r="M14">
-        <v>1.066764915411285</v>
+        <v>1.037952212464719</v>
       </c>
       <c r="N14">
-        <v>1.056671988368731</v>
+        <v>1.029927568344765</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048816437700288</v>
+        <v>0.9996850899615355</v>
       </c>
       <c r="D15">
-        <v>1.053817803031319</v>
+        <v>1.021170859359436</v>
       </c>
       <c r="E15">
-        <v>1.046159109979797</v>
+        <v>1.00708006386791</v>
       </c>
       <c r="F15">
-        <v>1.063403539658461</v>
+        <v>1.024019261898492</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046734133889296</v>
+        <v>1.045021081888833</v>
       </c>
       <c r="J15">
-        <v>1.055257689079349</v>
+        <v>1.028919807204468</v>
       </c>
       <c r="K15">
-        <v>1.057304612661127</v>
+        <v>1.035634497589678</v>
       </c>
       <c r="L15">
-        <v>1.049673353269143</v>
+        <v>1.021798491768223</v>
       </c>
       <c r="M15">
-        <v>1.066856626351298</v>
+        <v>1.038432499954237</v>
       </c>
       <c r="N15">
-        <v>1.056756276037591</v>
+        <v>1.030380991349449</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049522349961986</v>
+        <v>1.003528079435863</v>
       </c>
       <c r="D16">
-        <v>1.05436904040718</v>
+        <v>1.024079314932344</v>
       </c>
       <c r="E16">
-        <v>1.046762996484522</v>
+        <v>1.010193785582338</v>
       </c>
       <c r="F16">
-        <v>1.064049921953218</v>
+        <v>1.02734137260762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04694993214716</v>
+        <v>1.04640252945059</v>
       </c>
       <c r="J16">
-        <v>1.055747407626985</v>
+        <v>1.031526075311215</v>
       </c>
       <c r="K16">
-        <v>1.057742341738679</v>
+        <v>1.037991564389848</v>
       </c>
       <c r="L16">
-        <v>1.050162584624607</v>
+        <v>1.024345250943782</v>
       </c>
       <c r="M16">
-        <v>1.067390363031142</v>
+        <v>1.041198633656641</v>
       </c>
       <c r="N16">
-        <v>1.057246690041735</v>
+        <v>1.032990960655851</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049965175235382</v>
+        <v>1.005902758944627</v>
       </c>
       <c r="D17">
-        <v>1.054714845637075</v>
+        <v>1.025878467011619</v>
       </c>
       <c r="E17">
-        <v>1.047141919536994</v>
+        <v>1.012120380371565</v>
       </c>
       <c r="F17">
-        <v>1.064455526579467</v>
+        <v>1.029397105198191</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047084932380129</v>
+        <v>1.047253696449159</v>
       </c>
       <c r="J17">
-        <v>1.056054440026666</v>
+        <v>1.033135977525828</v>
       </c>
       <c r="K17">
-        <v>1.058016736013689</v>
+        <v>1.039447473353033</v>
       </c>
       <c r="L17">
-        <v>1.050469384432488</v>
+        <v>1.025919181207117</v>
       </c>
       <c r="M17">
-        <v>1.067725108658994</v>
+        <v>1.042908608655797</v>
       </c>
       <c r="N17">
-        <v>1.057554158462641</v>
+        <v>1.034603149116267</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050223477105076</v>
+        <v>1.007275340264356</v>
       </c>
       <c r="D18">
-        <v>1.054916558275414</v>
+        <v>1.026919056724028</v>
       </c>
       <c r="E18">
-        <v>1.047362982587712</v>
+        <v>1.01323485414916</v>
       </c>
       <c r="F18">
-        <v>1.064692161573459</v>
+        <v>1.030586349876764</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047163544476677</v>
+        <v>1.047744770617658</v>
       </c>
       <c r="J18">
-        <v>1.056233471035766</v>
+        <v>1.034066283857555</v>
       </c>
       <c r="K18">
-        <v>1.058176720154527</v>
+        <v>1.040288764941615</v>
       </c>
       <c r="L18">
-        <v>1.050648306049893</v>
+        <v>1.026828981440896</v>
       </c>
       <c r="M18">
-        <v>1.06792034095696</v>
+        <v>1.043897213139672</v>
       </c>
       <c r="N18">
-        <v>1.057733443716309</v>
+        <v>1.035534776589693</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050311552988034</v>
+        <v>1.007741268137672</v>
       </c>
       <c r="D19">
-        <v>1.054985338818736</v>
+        <v>1.027272398992039</v>
       </c>
       <c r="E19">
-        <v>1.047438366781741</v>
+        <v>1.013613314552089</v>
       </c>
       <c r="F19">
-        <v>1.064772856929039</v>
+        <v>1.030990212907735</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047190326910506</v>
+        <v>1.047911312052219</v>
       </c>
       <c r="J19">
-        <v>1.056294506529278</v>
+        <v>1.034382039152347</v>
       </c>
       <c r="K19">
-        <v>1.058231259524644</v>
+        <v>1.040574302573058</v>
       </c>
       <c r="L19">
-        <v>1.050709308696886</v>
+        <v>1.027137824182695</v>
       </c>
       <c r="M19">
-        <v>1.067986906878844</v>
+        <v>1.044232834464633</v>
       </c>
       <c r="N19">
-        <v>1.057794565887223</v>
+        <v>1.035850980293222</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04991766331104</v>
+        <v>1.005649283426305</v>
       </c>
       <c r="D20">
-        <v>1.054677742943171</v>
+        <v>1.025686353850906</v>
       </c>
       <c r="E20">
-        <v>1.047101260165863</v>
+        <v>1.01191464097726</v>
       </c>
       <c r="F20">
-        <v>1.064412003593494</v>
+        <v>1.029177568093415</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047070461709903</v>
+        <v>1.047162935723575</v>
       </c>
       <c r="J20">
-        <v>1.056021504129253</v>
+        <v>1.032964158292636</v>
       </c>
       <c r="K20">
-        <v>1.057987302870259</v>
+        <v>1.039292092002668</v>
       </c>
       <c r="L20">
-        <v>1.050436470771388</v>
+        <v>1.025751171929482</v>
       </c>
       <c r="M20">
-        <v>1.067689195604103</v>
+        <v>1.042726060113519</v>
       </c>
       <c r="N20">
-        <v>1.057521175792476</v>
+        <v>1.034431085880057</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.048637197946485</v>
+        <v>0.998697835912299</v>
       </c>
       <c r="D21">
-        <v>1.053677840080814</v>
+        <v>1.020424321520853</v>
       </c>
       <c r="E21">
-        <v>1.046005806674227</v>
+        <v>1.006280979316396</v>
       </c>
       <c r="F21">
-        <v>1.063239453443183</v>
+        <v>1.023166762184169</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046679225412604</v>
+        <v>1.044665436370039</v>
       </c>
       <c r="J21">
-        <v>1.055133290435369</v>
+        <v>1.028250101138533</v>
       </c>
       <c r="K21">
-        <v>1.05719340720099</v>
+        <v>1.035028812022148</v>
       </c>
       <c r="L21">
-        <v>1.049549100877495</v>
+        <v>1.021144325732956</v>
       </c>
       <c r="M21">
-        <v>1.066721081943006</v>
+        <v>1.037722135158671</v>
       </c>
       <c r="N21">
-        <v>1.056631700733268</v>
+        <v>1.029710334224084</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.047832196379305</v>
+        <v>0.9942050772995911</v>
       </c>
       <c r="D22">
-        <v>1.053049254331505</v>
+        <v>1.017030352135793</v>
       </c>
       <c r="E22">
-        <v>1.045317443979272</v>
+        <v>1.002648781582847</v>
       </c>
       <c r="F22">
-        <v>1.062502698576433</v>
+        <v>1.019292103640497</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0464320563429</v>
+        <v>1.043043336994742</v>
       </c>
       <c r="J22">
-        <v>1.054574330366572</v>
+        <v>1.025201739363772</v>
       </c>
       <c r="K22">
-        <v>1.056693663197931</v>
+        <v>1.032271819112146</v>
       </c>
       <c r="L22">
-        <v>1.048990908841363</v>
+        <v>1.018167947585928</v>
       </c>
       <c r="M22">
-        <v>1.066112216925753</v>
+        <v>1.034490829211461</v>
       </c>
       <c r="N22">
-        <v>1.056071946877059</v>
+        <v>1.026657643425952</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.048258935886915</v>
+        <v>0.9965988195519819</v>
       </c>
       <c r="D23">
-        <v>1.053382470723523</v>
+        <v>1.018837972368387</v>
       </c>
       <c r="E23">
-        <v>1.045682320912674</v>
+        <v>1.004583150258459</v>
       </c>
       <c r="F23">
-        <v>1.062893221376061</v>
+        <v>1.021355528975424</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046563197543495</v>
+        <v>1.043908317860292</v>
       </c>
       <c r="J23">
-        <v>1.054870693637366</v>
+        <v>1.026826037441927</v>
       </c>
       <c r="K23">
-        <v>1.056958642956018</v>
+        <v>1.033740869047746</v>
       </c>
       <c r="L23">
-        <v>1.049286842412853</v>
+        <v>1.019753637180834</v>
       </c>
       <c r="M23">
-        <v>1.066435004283642</v>
+        <v>1.03621217686618</v>
       </c>
       <c r="N23">
-        <v>1.05636873101769</v>
+        <v>1.028284248193687</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049939131875216</v>
+        <v>1.005763856723595</v>
       </c>
       <c r="D24">
-        <v>1.054694508021536</v>
+        <v>1.025773188728413</v>
       </c>
       <c r="E24">
-        <v>1.047119632250508</v>
+        <v>1.012007634351935</v>
       </c>
       <c r="F24">
-        <v>1.064431669594513</v>
+        <v>1.029276797764762</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047077000788361</v>
+        <v>1.047203963233776</v>
       </c>
       <c r="J24">
-        <v>1.056036386615802</v>
+        <v>1.033041822901325</v>
       </c>
       <c r="K24">
-        <v>1.058000602642765</v>
+        <v>1.039362326553219</v>
       </c>
       <c r="L24">
-        <v>1.050451343129143</v>
+        <v>1.0258271135162</v>
       </c>
       <c r="M24">
-        <v>1.067705423226812</v>
+        <v>1.042808573059225</v>
       </c>
       <c r="N24">
-        <v>1.057536079413864</v>
+        <v>1.034508860781398</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.05188927711973</v>
+        <v>1.015911660982621</v>
       </c>
       <c r="D25">
-        <v>1.056217458112367</v>
+        <v>1.033477410509603</v>
       </c>
       <c r="E25">
-        <v>1.048789264483341</v>
+        <v>1.0202621339155</v>
       </c>
       <c r="F25">
-        <v>1.066219019787183</v>
+        <v>1.038086246550426</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047668092347362</v>
+        <v>1.05081797595117</v>
       </c>
       <c r="J25">
-        <v>1.057386920769382</v>
+        <v>1.039915148803939</v>
       </c>
       <c r="K25">
-        <v>1.059207173956995</v>
+        <v>1.045577346469865</v>
       </c>
       <c r="L25">
-        <v>1.051801524039535</v>
+        <v>1.032553843212484</v>
       </c>
       <c r="M25">
-        <v>1.069178922333049</v>
+        <v>1.05012075305815</v>
       </c>
       <c r="N25">
-        <v>1.058888531480849</v>
+        <v>1.041391947595175</v>
       </c>
     </row>
   </sheetData>
